--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.62020760492599</v>
+        <v>1.903662</v>
       </c>
       <c r="H2">
-        <v>1.62020760492599</v>
+        <v>3.807324</v>
       </c>
       <c r="I2">
-        <v>0.4123891429444392</v>
+        <v>0.4013069244481473</v>
       </c>
       <c r="J2">
-        <v>0.4123891429444392</v>
+        <v>0.3088528831846959</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="N2">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="O2">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P2">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q2">
-        <v>0.527312974229965</v>
+        <v>0.705329614944</v>
       </c>
       <c r="R2">
-        <v>0.527312974229965</v>
+        <v>2.821318459776</v>
       </c>
       <c r="S2">
-        <v>0.0006061553258878583</v>
+        <v>0.0006576771955618835</v>
       </c>
       <c r="T2">
-        <v>0.0006061553258878583</v>
+        <v>0.0003376244126562661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.62020760492599</v>
+        <v>1.903662</v>
       </c>
       <c r="H3">
-        <v>1.62020760492599</v>
+        <v>3.807324</v>
       </c>
       <c r="I3">
-        <v>0.4123891429444392</v>
+        <v>0.4013069244481473</v>
       </c>
       <c r="J3">
-        <v>0.4123891429444392</v>
+        <v>0.3088528831846959</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N3">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P3">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q3">
-        <v>195.5801596969927</v>
+        <v>0.025827616908</v>
       </c>
       <c r="R3">
-        <v>195.5801596969927</v>
+        <v>0.154965701448</v>
       </c>
       <c r="S3">
-        <v>0.2248227546675697</v>
+        <v>2.408269027162394E-05</v>
       </c>
       <c r="T3">
-        <v>0.2248227546675697</v>
+        <v>1.854459348676337E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.62020760492599</v>
+        <v>1.903662</v>
       </c>
       <c r="H4">
-        <v>1.62020760492599</v>
+        <v>3.807324</v>
       </c>
       <c r="I4">
-        <v>0.4123891429444392</v>
+        <v>0.4013069244481473</v>
       </c>
       <c r="J4">
-        <v>0.4123891429444392</v>
+        <v>0.3088528831846959</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>100.383678438344</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N4">
-        <v>100.383678438344</v>
+        <v>373.961899</v>
       </c>
       <c r="O4">
-        <v>0.4533587659851912</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P4">
-        <v>0.4533587659851912</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q4">
-        <v>162.6423992162501</v>
+        <v>237.2990188580461</v>
       </c>
       <c r="R4">
-        <v>162.6423992162501</v>
+        <v>1423.794113148276</v>
       </c>
       <c r="S4">
-        <v>0.1869602329509816</v>
+        <v>0.2212669791903423</v>
       </c>
       <c r="T4">
-        <v>0.1869602329509816</v>
+        <v>0.1703840449239119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.601691579475833</v>
+        <v>1.903662</v>
       </c>
       <c r="H5">
-        <v>0.601691579475833</v>
+        <v>3.807324</v>
       </c>
       <c r="I5">
-        <v>0.1531477040488643</v>
+        <v>0.4013069244481473</v>
       </c>
       <c r="J5">
-        <v>0.1531477040488643</v>
+        <v>0.3088528831846959</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.325460127842106</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N5">
-        <v>0.325460127842106</v>
+        <v>301.895584</v>
       </c>
       <c r="O5">
-        <v>0.001469862473972854</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P5">
-        <v>0.001469862473972854</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q5">
-        <v>0.1958266183777233</v>
+        <v>191.569050409536</v>
       </c>
       <c r="R5">
-        <v>0.1958266183777233</v>
+        <v>1149.414302457216</v>
       </c>
       <c r="S5">
-        <v>0.0002251060631565261</v>
+        <v>0.1786265501410994</v>
       </c>
       <c r="T5">
-        <v>0.0002251060631565261</v>
+        <v>0.137549282117071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.601691579475833</v>
+        <v>1.903662</v>
       </c>
       <c r="H6">
-        <v>0.601691579475833</v>
+        <v>3.807324</v>
       </c>
       <c r="I6">
-        <v>0.1531477040488643</v>
+        <v>0.4013069244481473</v>
       </c>
       <c r="J6">
-        <v>0.1531477040488643</v>
+        <v>0.3088528831846959</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>120.713024122564</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N6">
-        <v>120.713024122564</v>
+        <v>1.236532</v>
       </c>
       <c r="O6">
-        <v>0.5451713715408358</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P6">
-        <v>0.5451713715408358</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q6">
-        <v>72.63201014760986</v>
+        <v>0.7846463267280001</v>
       </c>
       <c r="R6">
-        <v>72.63201014760986</v>
+        <v>4.707877960368</v>
       </c>
       <c r="S6">
-        <v>0.08349174386464935</v>
+        <v>0.0007316352308719889</v>
       </c>
       <c r="T6">
-        <v>0.08349174386464935</v>
+        <v>0.0005633871375700084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.601691579475833</v>
+        <v>0.67028</v>
       </c>
       <c r="H7">
-        <v>0.601691579475833</v>
+        <v>2.01084</v>
       </c>
       <c r="I7">
-        <v>0.1531477040488643</v>
+        <v>0.1413002966488295</v>
       </c>
       <c r="J7">
-        <v>0.1531477040488643</v>
+        <v>0.1631207986562514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>100.383678438344</v>
+        <v>0.370512</v>
       </c>
       <c r="N7">
-        <v>100.383678438344</v>
+        <v>0.741024</v>
       </c>
       <c r="O7">
-        <v>0.4533587659851912</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P7">
-        <v>0.4533587659851912</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q7">
-        <v>60.40001403316132</v>
+        <v>0.24834678336</v>
       </c>
       <c r="R7">
-        <v>60.40001403316132</v>
+        <v>1.49008070016</v>
       </c>
       <c r="S7">
-        <v>0.06943085412105837</v>
+        <v>0.0002315683512310585</v>
       </c>
       <c r="T7">
-        <v>0.06943085412105837</v>
+        <v>0.0001783164957712362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.825847418246979</v>
+        <v>0.67028</v>
       </c>
       <c r="H8">
-        <v>0.825847418246979</v>
+        <v>2.01084</v>
       </c>
       <c r="I8">
-        <v>0.2102017716608031</v>
+        <v>0.1413002966488295</v>
       </c>
       <c r="J8">
-        <v>0.2102017716608031</v>
+        <v>0.1631207986562514</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.325460127842106</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N8">
-        <v>0.325460127842106</v>
+        <v>0.040702</v>
       </c>
       <c r="O8">
-        <v>0.001469862473972854</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P8">
-        <v>0.001469862473972854</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q8">
-        <v>0.268780406320735</v>
+        <v>0.009093912186666667</v>
       </c>
       <c r="R8">
-        <v>0.268780406320735</v>
+        <v>0.08184520968</v>
       </c>
       <c r="S8">
-        <v>0.0003089676961268249</v>
+        <v>8.479522959046349E-06</v>
       </c>
       <c r="T8">
-        <v>0.0003089676961268249</v>
+        <v>9.794335960617814E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.825847418246979</v>
+        <v>0.67028</v>
       </c>
       <c r="H9">
-        <v>0.825847418246979</v>
+        <v>2.01084</v>
       </c>
       <c r="I9">
-        <v>0.2102017716608031</v>
+        <v>0.1413002966488295</v>
       </c>
       <c r="J9">
-        <v>0.2102017716608031</v>
+        <v>0.1631207986562514</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120.713024122564</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N9">
-        <v>120.713024122564</v>
+        <v>373.961899</v>
       </c>
       <c r="O9">
-        <v>0.5451713715408358</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P9">
-        <v>0.5451713715408358</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q9">
-        <v>99.69053932040478</v>
+        <v>83.55306055390668</v>
       </c>
       <c r="R9">
-        <v>99.69053932040478</v>
+        <v>751.97754498516</v>
       </c>
       <c r="S9">
-        <v>0.1145959881566336</v>
+        <v>0.07790817425136533</v>
       </c>
       <c r="T9">
-        <v>0.1145959881566336</v>
+        <v>0.08998841519523922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.825847418246979</v>
+        <v>0.67028</v>
       </c>
       <c r="H10">
-        <v>0.825847418246979</v>
+        <v>2.01084</v>
       </c>
       <c r="I10">
-        <v>0.2102017716608031</v>
+        <v>0.1413002966488295</v>
       </c>
       <c r="J10">
-        <v>0.2102017716608031</v>
+        <v>0.1631207986562514</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.383678438344</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N10">
-        <v>100.383678438344</v>
+        <v>301.895584</v>
       </c>
       <c r="O10">
-        <v>0.4533587659851912</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P10">
-        <v>0.4533587659851912</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q10">
-        <v>82.90160167244133</v>
+        <v>67.45152401450666</v>
       </c>
       <c r="R10">
-        <v>82.90160167244133</v>
+        <v>607.06371613056</v>
       </c>
       <c r="S10">
-        <v>0.09529681580804261</v>
+        <v>0.06289446552411933</v>
       </c>
       <c r="T10">
-        <v>0.09529681580804261</v>
+        <v>0.0726467194418681</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.881085260764922</v>
+        <v>0.67028</v>
       </c>
       <c r="H11">
-        <v>0.881085260764922</v>
+        <v>2.01084</v>
       </c>
       <c r="I11">
-        <v>0.2242613813458934</v>
+        <v>0.1413002966488295</v>
       </c>
       <c r="J11">
-        <v>0.2242613813458934</v>
+        <v>0.1631207986562514</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.325460127842106</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N11">
-        <v>0.325460127842106</v>
+        <v>1.236532</v>
       </c>
       <c r="O11">
-        <v>0.001469862473972854</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P11">
-        <v>0.001469862473972854</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q11">
-        <v>0.2867581216083468</v>
+        <v>0.2762742229866667</v>
       </c>
       <c r="R11">
-        <v>0.2867581216083468</v>
+        <v>2.48646800688</v>
       </c>
       <c r="S11">
-        <v>0.0003296333888016444</v>
+        <v>0.0002576089991547221</v>
       </c>
       <c r="T11">
-        <v>0.0003296333888016444</v>
+        <v>0.000297553187412281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.881085260764922</v>
+        <v>0.392014</v>
       </c>
       <c r="H12">
-        <v>0.881085260764922</v>
+        <v>1.176042</v>
       </c>
       <c r="I12">
-        <v>0.2242613813458934</v>
+        <v>0.08263963491450477</v>
       </c>
       <c r="J12">
-        <v>0.2242613813458934</v>
+        <v>0.0954013796688425</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>120.713024122564</v>
+        <v>0.370512</v>
       </c>
       <c r="N12">
-        <v>120.713024122564</v>
+        <v>0.741024</v>
       </c>
       <c r="O12">
-        <v>0.5451713715408358</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P12">
-        <v>0.5451713715408358</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q12">
-        <v>106.3584663367516</v>
+        <v>0.145245891168</v>
       </c>
       <c r="R12">
-        <v>106.3584663367516</v>
+        <v>0.871475347008</v>
       </c>
       <c r="S12">
-        <v>0.1222608848519831</v>
+        <v>0.0001354330065636632</v>
       </c>
       <c r="T12">
-        <v>0.1222608848519831</v>
+        <v>0.0001042885999481789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.392014</v>
+      </c>
+      <c r="H13">
+        <v>1.176042</v>
+      </c>
+      <c r="I13">
+        <v>0.08263963491450477</v>
+      </c>
+      <c r="J13">
+        <v>0.0954013796688425</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.040702</v>
+      </c>
+      <c r="O13">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P13">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q13">
+        <v>0.005318584609333334</v>
+      </c>
+      <c r="R13">
+        <v>0.047867261484</v>
+      </c>
+      <c r="S13">
+        <v>4.959258389430679E-06</v>
+      </c>
+      <c r="T13">
+        <v>5.728228228897821E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.392014</v>
+      </c>
+      <c r="H14">
+        <v>1.176042</v>
+      </c>
+      <c r="I14">
+        <v>0.08263963491450477</v>
+      </c>
+      <c r="J14">
+        <v>0.0954013796688425</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N14">
+        <v>373.961899</v>
+      </c>
+      <c r="O14">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P14">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q14">
+        <v>48.86609995819534</v>
+      </c>
+      <c r="R14">
+        <v>439.7948996237581</v>
+      </c>
+      <c r="S14">
+        <v>0.04556468195526456</v>
+      </c>
+      <c r="T14">
+        <v>0.05262982424411665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.392014</v>
+      </c>
+      <c r="H15">
+        <v>1.176042</v>
+      </c>
+      <c r="I15">
+        <v>0.08263963491450477</v>
+      </c>
+      <c r="J15">
+        <v>0.0954013796688425</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N15">
+        <v>301.895584</v>
+      </c>
+      <c r="O15">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P15">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q15">
+        <v>39.44909848872533</v>
+      </c>
+      <c r="R15">
+        <v>355.041886398528</v>
+      </c>
+      <c r="S15">
+        <v>0.03678389778595828</v>
+      </c>
+      <c r="T15">
+        <v>0.04248751428549932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.392014</v>
+      </c>
+      <c r="H16">
+        <v>1.176042</v>
+      </c>
+      <c r="I16">
+        <v>0.08263963491450477</v>
+      </c>
+      <c r="J16">
+        <v>0.0954013796688425</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.236532</v>
+      </c>
+      <c r="O16">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P16">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q16">
+        <v>0.1615792851493333</v>
+      </c>
+      <c r="R16">
+        <v>1.454213566344</v>
+      </c>
+      <c r="S16">
+        <v>0.0001506629083288167</v>
+      </c>
+      <c r="T16">
+        <v>0.0001740243110494688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8668149999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.600445</v>
+      </c>
+      <c r="I17">
+        <v>0.1827314206595082</v>
+      </c>
+      <c r="J17">
+        <v>0.2109499837190705</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.370512</v>
+      </c>
+      <c r="N17">
+        <v>0.741024</v>
+      </c>
+      <c r="O17">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P17">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q17">
+        <v>0.32116535928</v>
+      </c>
+      <c r="R17">
+        <v>1.92699215568</v>
+      </c>
+      <c r="S17">
+        <v>0.0002994672679661483</v>
+      </c>
+      <c r="T17">
+        <v>0.0002306012610878201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8668149999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.600445</v>
+      </c>
+      <c r="I18">
+        <v>0.1827314206595082</v>
+      </c>
+      <c r="J18">
+        <v>0.2109499837190705</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.040702</v>
+      </c>
+      <c r="O18">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P18">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q18">
+        <v>0.01176036804333333</v>
+      </c>
+      <c r="R18">
+        <v>0.10584331239</v>
+      </c>
+      <c r="S18">
+        <v>1.09658317326278E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.266616537223687E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.881085260764922</v>
-      </c>
-      <c r="H13">
-        <v>0.881085260764922</v>
-      </c>
-      <c r="I13">
-        <v>0.2242613813458934</v>
-      </c>
-      <c r="J13">
-        <v>0.2242613813458934</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>100.383678438344</v>
-      </c>
-      <c r="N13">
-        <v>100.383678438344</v>
-      </c>
-      <c r="O13">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="P13">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="Q13">
-        <v>88.4465794933904</v>
-      </c>
-      <c r="R13">
-        <v>88.4465794933904</v>
-      </c>
-      <c r="S13">
-        <v>0.1016708631051086</v>
-      </c>
-      <c r="T13">
-        <v>0.1016708631051086</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8668149999999999</v>
+      </c>
+      <c r="H19">
+        <v>2.600445</v>
+      </c>
+      <c r="I19">
+        <v>0.1827314206595082</v>
+      </c>
+      <c r="J19">
+        <v>0.2109499837190705</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N19">
+        <v>373.961899</v>
+      </c>
+      <c r="O19">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P19">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q19">
+        <v>108.0519278272283</v>
+      </c>
+      <c r="R19">
+        <v>972.4673504450549</v>
+      </c>
+      <c r="S19">
+        <v>0.1007518858741082</v>
+      </c>
+      <c r="T19">
+        <v>0.1163742139366552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8668149999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.600445</v>
+      </c>
+      <c r="I20">
+        <v>0.1827314206595082</v>
+      </c>
+      <c r="J20">
+        <v>0.2109499837190705</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N20">
+        <v>301.895584</v>
+      </c>
+      <c r="O20">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P20">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q20">
+        <v>87.22920688165333</v>
+      </c>
+      <c r="R20">
+        <v>785.0628619348798</v>
+      </c>
+      <c r="S20">
+        <v>0.08133595830591618</v>
+      </c>
+      <c r="T20">
+        <v>0.09394770262129691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8668149999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.600445</v>
+      </c>
+      <c r="I21">
+        <v>0.1827314206595082</v>
+      </c>
+      <c r="J21">
+        <v>0.2109499837190705</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.236532</v>
+      </c>
+      <c r="O21">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P21">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q21">
+        <v>0.3572814951933333</v>
+      </c>
+      <c r="R21">
+        <v>3.215533456739999</v>
+      </c>
+      <c r="S21">
+        <v>0.0003331433797850158</v>
+      </c>
+      <c r="T21">
+        <v>0.0003847997346583165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9108849999999999</v>
+      </c>
+      <c r="H22">
+        <v>2.732655</v>
+      </c>
+      <c r="I22">
+        <v>0.1920217233290104</v>
+      </c>
+      <c r="J22">
+        <v>0.2216749547711398</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.370512</v>
+      </c>
+      <c r="N22">
+        <v>0.741024</v>
+      </c>
+      <c r="O22">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P22">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q22">
+        <v>0.33749382312</v>
+      </c>
+      <c r="R22">
+        <v>2.02496293872</v>
+      </c>
+      <c r="S22">
+        <v>0.0003146925726727676</v>
+      </c>
+      <c r="T22">
+        <v>0.0002423253285948894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9108849999999999</v>
+      </c>
+      <c r="H23">
+        <v>2.732655</v>
+      </c>
+      <c r="I23">
+        <v>0.1920217233290104</v>
+      </c>
+      <c r="J23">
+        <v>0.2216749547711398</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.040702</v>
+      </c>
+      <c r="O23">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P23">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q23">
+        <v>0.01235828042333333</v>
+      </c>
+      <c r="R23">
+        <v>0.11122452381</v>
+      </c>
+      <c r="S23">
+        <v>1.152334885503213E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.331012966444972E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9108849999999999</v>
+      </c>
+      <c r="H24">
+        <v>2.732655</v>
+      </c>
+      <c r="I24">
+        <v>0.1920217233290104</v>
+      </c>
+      <c r="J24">
+        <v>0.2216749547711398</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N24">
+        <v>373.961899</v>
+      </c>
+      <c r="O24">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P24">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q24">
+        <v>113.5454281235383</v>
+      </c>
+      <c r="R24">
+        <v>1021.908853111845</v>
+      </c>
+      <c r="S24">
+        <v>0.1058742425597585</v>
+      </c>
+      <c r="T24">
+        <v>0.1222908300637278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9108849999999999</v>
+      </c>
+      <c r="H25">
+        <v>2.732655</v>
+      </c>
+      <c r="I25">
+        <v>0.1920217233290104</v>
+      </c>
+      <c r="J25">
+        <v>0.2216749547711398</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N25">
+        <v>301.895584</v>
+      </c>
+      <c r="O25">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P25">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q25">
+        <v>91.66405301061333</v>
+      </c>
+      <c r="R25">
+        <v>824.97647709552</v>
+      </c>
+      <c r="S25">
+        <v>0.08547118402598532</v>
+      </c>
+      <c r="T25">
+        <v>0.09872412579639259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9108849999999999</v>
+      </c>
+      <c r="H26">
+        <v>2.732655</v>
+      </c>
+      <c r="I26">
+        <v>0.1920217233290104</v>
+      </c>
+      <c r="J26">
+        <v>0.2216749547711398</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.236532</v>
+      </c>
+      <c r="O26">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P26">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q26">
+        <v>0.3754461502733333</v>
+      </c>
+      <c r="R26">
+        <v>3.37901535246</v>
+      </c>
+      <c r="S26">
+        <v>0.0003500808217387495</v>
+      </c>
+      <c r="T26">
+        <v>0.0004043634527600938</v>
       </c>
     </row>
   </sheetData>
